--- a/SIRS MODELS/spain/03_25_2020.xlsx
+++ b/SIRS MODELS/spain/03_25_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B2D640-C8A3-4523-83ED-A2554DB41EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A85FB-045E-431C-B68F-B4884A6AEFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1538,612 +1538,612 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$4:$B$369</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$4:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="366"/>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>188</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>189</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>190</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>191</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>192</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>193</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>194</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>195</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>196</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>197</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>198</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>199</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>200</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2787,612 +2787,612 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$4:$B$369</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$4:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="366"/>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>188</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>189</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>190</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>191</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>192</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>193</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>194</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>195</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>196</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>197</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>198</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>199</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>200</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,8 +4031,8 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="0"/>
+          <c:max val="43967"/>
+          <c:min val="43886"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4118,7 +4118,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4458,576 +4458,565 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$23:$B$204</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$23:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>52</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>55</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>56</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>64</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>65</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>67</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>68</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>69</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>70</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>71</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>72</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>73</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>74</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>75</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>76</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>77</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>78</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>79</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>80</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>81</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>82</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>83</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>84</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>85</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>86</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>87</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>88</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>89</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>90</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>91</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>92</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>94</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>95</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>96</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>97</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>98</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>99</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>100</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>101</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>102</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>103</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>104</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>105</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>106</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>107</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>108</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>109</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>110</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>111</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>112</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>113</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>114</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>115</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>116</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>117</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>118</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>119</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>120</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>121</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>122</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>123</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>124</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>125</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>126</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>127</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>128</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>129</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>130</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>131</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>132</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>133</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>134</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>135</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>136</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>137</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>138</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>139</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>140</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>141</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>142</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>143</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>144</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>145</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>146</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>147</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>148</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>149</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>150</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>151</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>152</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>153</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>154</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>155</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>156</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>157</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>158</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>159</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>160</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>161</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>162</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>163</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>164</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>165</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>166</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>167</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>168</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>169</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>170</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>171</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>172</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>173</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>174</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>175</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>176</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>177</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>178</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>179</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>180</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>181</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>182</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>183</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>184</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>185</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>186</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>187</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>188</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>189</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>190</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>191</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>192</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>193</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>194</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>195</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>196</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>197</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>198</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>199</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>200</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5602,9 +5591,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5626,555 +5613,555 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$23:$B$204</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$23:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>52</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>55</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>56</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>64</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>65</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>67</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>68</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>69</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>70</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>71</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>72</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>73</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>74</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>75</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>76</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>77</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>78</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>79</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>80</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>81</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>82</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>83</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>84</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>85</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>86</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>87</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>88</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>89</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>90</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>91</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>92</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>94</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>95</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>96</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>97</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>98</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>99</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>100</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>101</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>102</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>103</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>104</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>105</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>106</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>107</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>108</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>109</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>110</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>111</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>112</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>113</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>114</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>115</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>116</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>117</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>118</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>119</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>120</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>121</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>122</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>123</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>124</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>125</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>126</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>127</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>128</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>129</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>130</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>131</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>132</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>133</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>134</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>135</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>136</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>137</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>138</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>139</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>140</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>141</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>142</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>143</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>144</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>145</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>146</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>147</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>148</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>149</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>150</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>151</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>152</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>153</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>154</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>155</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>156</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>157</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>158</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>159</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>160</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>161</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>162</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>163</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>164</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>165</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>166</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>167</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>168</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>169</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>170</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>171</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>172</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>173</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>174</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>175</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>176</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>177</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>178</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>179</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>180</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>181</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>182</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>183</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>184</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>185</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>186</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>187</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>188</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>189</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>190</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>191</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>192</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>193</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>194</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>195</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>196</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>197</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>198</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>199</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>200</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6267,8 +6254,8 @@
         <c:axId val="2005682768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="39"/>
-          <c:min val="19"/>
+          <c:max val="43929"/>
+          <c:min val="43904"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6355,7 +6342,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8100,8 +8087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="O4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8546,7 +8533,7 @@
       <c r="S9" s="182"/>
       <c r="T9" s="183"/>
       <c r="U9" s="99">
-        <f>U8/(U7^U6)</f>
+        <f>(U8/(U7^U6))</f>
         <v>2.5589825388949165E-3</v>
       </c>
     </row>
